--- a/DataCW3M/SkillAssessment/ClackasmasSummary.xlsx
+++ b/DataCW3M/SkillAssessment/ClackasmasSummary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD05FF8-5C77-4873-AAA6-44B6E8E128EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925F7C8B-64BC-4623-80CD-F4CD66A9FE64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="240" windowWidth="18852" windowHeight="11328" xr2:uid="{C67948E6-1C73-4AAC-90D2-A2C4D420F2BD}"/>
+    <workbookView xWindow="2304" yWindow="396" windowWidth="20280" windowHeight="10296" xr2:uid="{C67948E6-1C73-4AAC-90D2-A2C4D420F2BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow skill" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="40">
   <si>
     <t>USGS gage</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>CLACKAMAS RIVER AT ESTACADA  OR</t>
+  </si>
+  <si>
+    <t>C85+</t>
   </si>
 </sst>
 </file>
@@ -289,16 +292,11 @@
     <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -307,7 +305,12 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,8 +629,8 @@
   <dimension ref="A1:BH14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,73 +665,73 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="29" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="28" t="s">
+      <c r="N1" s="29"/>
+      <c r="O1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="25" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="25"/>
+      <c r="R1" s="27"/>
       <c r="S1" s="26" t="s">
         <v>14</v>
       </c>
       <c r="T1" s="26"/>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="27"/>
-      <c r="W1" s="28" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="28"/>
+      <c r="X1" s="30"/>
       <c r="Z1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AA1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="29" t="s">
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="27" t="s">
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="28" t="s">
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="25" t="s">
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="25"/>
+      <c r="AJ1" s="27"/>
       <c r="AK1" s="26" t="s">
         <v>14</v>
       </c>
       <c r="AL1" s="26"/>
-      <c r="AM1" s="27" t="s">
+      <c r="AM1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="28" t="s">
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AP1" s="28"/>
+      <c r="AP1" s="30"/>
       <c r="AQ1">
         <f>MIN(AQ3:AQ69)</f>
         <v>1</v>
@@ -940,19 +943,19 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3">
-        <v>-0.49</v>
+        <v>0.95</v>
       </c>
       <c r="F3" s="7">
-        <v>-0.52800000000000002</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="G3" s="4">
-        <v>1.22</v>
+        <v>0.221</v>
       </c>
       <c r="H3" s="5">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="I3" s="8">
         <v>0.87517406588218205</v>
@@ -1120,19 +1123,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
-        <v>0.39300000000000002</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="F4" s="7">
-        <v>3.2250000000000001</v>
+        <v>8.4250000000000007</v>
       </c>
       <c r="G4" s="4">
-        <v>0.77800000000000002</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="H4" s="5">
-        <v>0.73299999999999998</v>
+        <v>0.748</v>
       </c>
       <c r="I4" s="8">
         <v>-6.1650493608395598</v>
@@ -1140,10 +1143,10 @@
       <c r="J4" s="8">
         <v>-6.2054640769481804</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="25">
         <v>90.817287947932698</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="25">
         <v>90.677144158421896</v>
       </c>
       <c r="M4" s="9">
@@ -1191,10 +1194,10 @@
       <c r="AB4" s="8">
         <v>-6.0444303011356197</v>
       </c>
-      <c r="AC4" s="31">
+      <c r="AC4" s="25">
         <v>90.992890159462206</v>
       </c>
-      <c r="AD4" s="31">
+      <c r="AD4" s="25">
         <v>90.807583521074704</v>
       </c>
       <c r="AE4" s="9">
@@ -1300,19 +1303,19 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3">
-        <v>-1.51</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="F5" s="7">
-        <v>-0.54700000000000004</v>
+        <v>-0.10299999999999999</v>
       </c>
       <c r="G5" s="4">
-        <v>1.5860000000000001</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="H5" s="5">
-        <v>0.83399999999999996</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="I5" s="8">
         <v>-0.12579102405015699</v>
@@ -1320,10 +1323,10 @@
       <c r="J5" s="8">
         <v>-0.15731268790108199</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="25">
         <v>-12.016822324999</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="25">
         <v>-12.967679592282</v>
       </c>
       <c r="M5" s="9">
@@ -1371,10 +1374,10 @@
       <c r="AB5" s="8">
         <v>-0.112730353061711</v>
       </c>
-      <c r="AC5" s="31">
+      <c r="AC5" s="25">
         <v>-14.713896120325201</v>
       </c>
-      <c r="AD5" s="31">
+      <c r="AD5" s="25">
         <v>-14.186631350404101</v>
       </c>
       <c r="AE5" s="9">
@@ -1480,19 +1483,19 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3">
-        <v>-96.6</v>
+        <v>-16.73</v>
       </c>
       <c r="F6" s="7">
-        <v>-0.90900000000000003</v>
+        <v>-0.81799999999999995</v>
       </c>
       <c r="G6" s="4">
-        <v>9.8800000000000008</v>
+        <v>4.21</v>
       </c>
       <c r="H6" s="5">
-        <v>0.67800000000000005</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.3">
@@ -1506,19 +1509,19 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.56100000000000005</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="F7" s="7">
-        <v>-0.50600000000000001</v>
+        <v>-4.9000000000000002E-2</v>
       </c>
       <c r="G7" s="4">
-        <v>1.2490000000000001</v>
+        <v>0.251</v>
       </c>
       <c r="H7" s="5">
-        <v>0.84599999999999997</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="I7" s="8">
         <v>0.80940687816865498</v>
@@ -1526,10 +1529,10 @@
       <c r="J7" s="8">
         <v>0.769334859050122</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="25">
         <v>-4.3526231551944896</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="25">
         <v>-6.5097568990758301</v>
       </c>
       <c r="M7" s="9">
@@ -1577,10 +1580,10 @@
       <c r="AB7" s="8">
         <v>0.81487431108080899</v>
       </c>
-      <c r="AC7" s="31">
+      <c r="AC7" s="25">
         <v>-8.70200089752535</v>
       </c>
-      <c r="AD7" s="31">
+      <c r="AD7" s="25">
         <v>-7.4905471371135004</v>
       </c>
       <c r="AE7" s="9">
@@ -1686,19 +1689,19 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E8" s="3">
-        <v>-0.34</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="F8" s="7">
-        <v>-0.48199999999999998</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="G8" s="4">
-        <v>1.1499999999999999</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="H8" s="5">
-        <v>0.84599999999999997</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="I8" s="8">
         <v>0.83191942685365805</v>
@@ -1706,10 +1709,10 @@
       <c r="J8" s="8">
         <v>0.79591027856556695</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="25">
         <v>0.38831179398619903</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="25">
         <v>-1.3185495812788199</v>
       </c>
       <c r="M8" s="9">
@@ -1757,10 +1760,10 @@
       <c r="AB8" s="8">
         <v>0.85464863387376999</v>
       </c>
-      <c r="AC8" s="31">
+      <c r="AC8" s="25">
         <v>-3.7988371745056999</v>
       </c>
-      <c r="AD8" s="31">
+      <c r="AD8" s="25">
         <v>-2.1712428863506799</v>
       </c>
       <c r="AE8" s="9">
@@ -1914,19 +1917,19 @@
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3">
-        <v>0.97899999999999998</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="F13" s="7">
-        <v>0.03</v>
+        <v>-0.111</v>
       </c>
       <c r="G13" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="H13" s="5">
-        <v>0.98</v>
+        <v>0.98099999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.3">
@@ -1957,12 +1960,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AM1:AN1"/>
@@ -1973,6 +1970,12 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/DataCW3M/SkillAssessment/ClackasmasSummary.xlsx
+++ b/DataCW3M/SkillAssessment/ClackasmasSummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4E9814-649D-4A5E-8197-E656579A2668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363ABA6A-B823-4597-BCA3-58CB5A6CCE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="396" windowWidth="20280" windowHeight="10296" xr2:uid="{C67948E6-1C73-4AAC-90D2-A2C4D420F2BD}"/>
+    <workbookView xWindow="816" yWindow="1296" windowWidth="21732" windowHeight="10248" xr2:uid="{C67948E6-1C73-4AAC-90D2-A2C4D420F2BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow skill" sheetId="3" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Flow skill statistics, monthly basis</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\Clackamas\USGS_14211010_flow_CLACKAMAS RIVER NEAR OREGON CITY  OR_23809000.csv</t>
-  </si>
-  <si>
     <t>VG</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>CW3M</t>
   </si>
   <si>
-    <t>C86 2012-18</t>
-  </si>
-  <si>
     <t>WW2100</t>
   </si>
   <si>
@@ -165,6 +159,12 @@
   </si>
   <si>
     <t>INFEWS</t>
+  </si>
+  <si>
+    <t>C112</t>
+  </si>
+  <si>
+    <t>C112 2012-18</t>
   </si>
 </sst>
 </file>
@@ -199,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +254,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -268,13 +274,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -303,26 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180" wrapText="1"/>
@@ -336,6 +320,39 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,199 +668,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AC4AF3-0CD3-442B-BCD5-558D5E21E098}">
-  <dimension ref="A1:BX16"/>
+  <dimension ref="A1:BX17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="49.5546875" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="3"/>
-    <col min="6" max="6" width="3.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="3.44140625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="3.5546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="7"/>
-    <col min="11" max="11" width="3.77734375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="3.44140625" style="32" customWidth="1"/>
-    <col min="13" max="14" width="3.5546875" style="32" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="4"/>
-    <col min="16" max="16" width="3.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="3.44140625" style="4" customWidth="1"/>
-    <col min="18" max="19" width="3.5546875" style="4" customWidth="1"/>
-    <col min="20" max="20" width="9.109375" style="5"/>
-    <col min="21" max="21" width="3.33203125" style="6" customWidth="1"/>
-    <col min="22" max="22" width="3.44140625" style="6" customWidth="1"/>
-    <col min="23" max="24" width="3.5546875" style="6" customWidth="1"/>
-    <col min="25" max="25" width="9.109375" style="16"/>
-    <col min="26" max="26" width="9.109375" style="17"/>
-    <col min="27" max="28" width="9.109375" style="19"/>
-    <col min="29" max="29" width="9.109375" style="22"/>
-    <col min="30" max="30" width="9.109375" style="23"/>
-    <col min="31" max="31" width="9.109375" style="4"/>
-    <col min="32" max="32" width="9.109375" style="6"/>
-    <col min="33" max="33" width="9.109375" style="3"/>
-    <col min="34" max="34" width="9.109375" style="7"/>
-    <col min="35" max="35" width="9.109375" style="4"/>
-    <col min="36" max="36" width="9.109375" style="5"/>
-    <col min="43" max="44" width="8.88671875" style="18"/>
-    <col min="45" max="46" width="8.88671875" style="21"/>
-    <col min="61" max="62" width="8.88671875" style="18"/>
-    <col min="63" max="64" width="8.88671875" style="21"/>
+    <col min="5" max="5" width="9.109375" style="2"/>
+    <col min="6" max="6" width="3.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="3.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="6"/>
+    <col min="11" max="11" width="3.77734375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="3.44140625" style="24" customWidth="1"/>
+    <col min="13" max="14" width="3.5546875" style="24" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="3"/>
+    <col min="16" max="16" width="3.5546875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="3.44140625" style="3" customWidth="1"/>
+    <col min="18" max="19" width="3.5546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" style="4"/>
+    <col min="21" max="21" width="3.33203125" style="5" customWidth="1"/>
+    <col min="22" max="22" width="3.44140625" style="5" customWidth="1"/>
+    <col min="23" max="24" width="3.5546875" style="5" customWidth="1"/>
+    <col min="25" max="25" width="9.109375" style="15"/>
+    <col min="26" max="26" width="9.109375" style="16"/>
+    <col min="27" max="28" width="9.109375" style="18"/>
+    <col min="29" max="29" width="9.109375" style="21"/>
+    <col min="30" max="30" width="9.109375" style="22"/>
+    <col min="31" max="31" width="9.109375" style="3"/>
+    <col min="32" max="32" width="9.109375" style="5"/>
+    <col min="33" max="33" width="9.109375" style="2"/>
+    <col min="34" max="34" width="9.109375" style="6"/>
+    <col min="35" max="35" width="9.109375" style="3"/>
+    <col min="36" max="36" width="9.109375" style="4"/>
+    <col min="43" max="44" width="8.88671875" style="17"/>
+    <col min="45" max="46" width="8.88671875" style="20"/>
+    <col min="61" max="62" width="8.88671875" style="17"/>
+    <col min="63" max="64" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:76" ht="45.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="28" t="s">
         <v>41</v>
-      </c>
-      <c r="W1" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="X1" s="36" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="28" t="s">
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="27" t="s">
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ3" s="26"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ3" s="30"/>
       <c r="AK3" s="31" t="s">
         <v>3</v>
       </c>
       <c r="AL3" s="31"/>
-      <c r="AM3" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN3" s="30"/>
-      <c r="AP3" s="15" t="s">
+      <c r="AM3" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN3" s="32"/>
+      <c r="AP3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AQ3" s="27" t="s">
+      <c r="AQ3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT3" s="28"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT3" s="33"/>
       <c r="AU3" s="31" t="s">
         <v>3</v>
       </c>
       <c r="AV3" s="31"/>
-      <c r="AW3" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="27" t="s">
+      <c r="AW3" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="BB3" s="26"/>
+      <c r="AZ3" s="29"/>
+      <c r="BA3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB3" s="30"/>
       <c r="BC3" s="31" t="s">
         <v>3</v>
       </c>
       <c r="BD3" s="31"/>
-      <c r="BE3" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="BF3" s="30"/>
+      <c r="BE3" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF3" s="32"/>
       <c r="BG3">
-        <f>MIN(BG5:BG71)</f>
+        <f>MIN(BG5:BG72)</f>
         <v>1</v>
       </c>
       <c r="BH3" t="s">
         <v>5</v>
       </c>
-      <c r="BI3" s="8" t="s">
+      <c r="BI3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BJ3" s="8"/>
-      <c r="BK3" s="20" t="s">
+      <c r="BJ3" s="7"/>
+      <c r="BK3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL3" s="19"/>
+      <c r="BM3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN3" s="9"/>
+      <c r="BO3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="BL3" s="20"/>
-      <c r="BM3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="BN3" s="10"/>
-      <c r="BO3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="BP3" s="10"/>
+      <c r="BP3" s="9"/>
       <c r="BQ3" t="s">
         <v>1</v>
       </c>
       <c r="BS3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BU3" t="s">
         <v>3</v>
       </c>
       <c r="BW3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:76" x14ac:dyDescent="0.3">
@@ -851,407 +868,407 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Y4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="AA4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AR4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AC4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD4" s="13" t="s">
+      <c r="AT4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AV4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AG4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH4" s="11" t="s">
+      <c r="AX4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AI4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ4" s="12" t="s">
+      <c r="AZ4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AK4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL4" s="13" t="s">
+      <c r="BB4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AM4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN4" s="1" t="s">
+      <c r="BD4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AQ4" s="11" t="s">
+      <c r="BF4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AR4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS4" s="12" t="s">
+      <c r="BI4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="BJ4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AT4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AU4" s="13" t="s">
+      <c r="BK4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="BL4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AV4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW4" s="1" t="s">
+      <c r="BM4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="BN4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AX4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AY4" s="11" t="s">
+      <c r="BO4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AZ4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="BA4" s="12" t="s">
+      <c r="BQ4" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR4" t="s">
         <v>16</v>
       </c>
-      <c r="BB4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="BC4" s="13" t="s">
+      <c r="BS4" t="s">
+        <v>15</v>
+      </c>
+      <c r="BT4" t="s">
         <v>16</v>
       </c>
-      <c r="BD4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="BE4" s="1" t="s">
+      <c r="BU4" t="s">
+        <v>15</v>
+      </c>
+      <c r="BV4" t="s">
         <v>16</v>
       </c>
-      <c r="BF4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BI4" s="10" t="s">
+      <c r="BW4" t="s">
+        <v>15</v>
+      </c>
+      <c r="BX4" t="s">
         <v>16</v>
       </c>
-      <c r="BJ4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="BK4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="BL4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="BM4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="BN4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="BO4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="BP4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>16</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>17</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>16</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>17</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>16</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>17</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>16</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="5" spans="1:76" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:76" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35">
         <v>14211010</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="35">
         <v>23809000</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="C5" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="36">
         <v>0.85</v>
       </c>
-      <c r="F5" s="3" t="str">
+      <c r="F5" s="36" t="str">
         <f>IF(E5&gt;0.8,"VG",IF(E5&gt;0.7,"G",IF(E5&gt;0.45,"S","NS")))</f>
         <v>VG</v>
       </c>
-      <c r="G5" s="3" t="str">
+      <c r="G5" s="36" t="str">
         <f>AH5</f>
         <v>VG</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="36" t="str">
         <f>AZ5</f>
         <v>VG</v>
       </c>
-      <c r="I5" s="3" t="str">
+      <c r="I5" s="36" t="str">
         <f>BR5</f>
         <v>VG</v>
       </c>
-      <c r="J5" s="7">
-        <v>-3.1E-2</v>
-      </c>
-      <c r="K5" s="32" t="str">
+      <c r="J5" s="37">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="K5" s="36" t="str">
         <f>IF(ABS(J5)&lt;5%,"VG",IF(ABS(J5)&lt;10%,"G",IF(ABS(J5)&lt;15%,"S","NS")))</f>
         <v>VG</v>
       </c>
-      <c r="L5" s="32" t="str">
+      <c r="L5" s="36" t="str">
         <f t="shared" ref="L5" si="0">AM5</f>
         <v>VG</v>
       </c>
-      <c r="M5" s="32" t="str">
+      <c r="M5" s="36" t="str">
         <f>BB5</f>
         <v>VG</v>
       </c>
-      <c r="N5" s="32" t="str">
+      <c r="N5" s="36" t="str">
         <f t="shared" ref="N5" si="1">BW5</f>
         <v>VG</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="36">
         <v>0.39</v>
       </c>
-      <c r="P5" s="4" t="str">
+      <c r="P5" s="36" t="str">
         <f>IF(O5&lt;=0.5,"VG",IF(O5&lt;=0.6,"G",IF(O5&lt;=0.7,"S","NS")))</f>
         <v>VG</v>
       </c>
-      <c r="Q5" s="4" t="str">
+      <c r="Q5" s="36" t="str">
         <f>AL5</f>
         <v>VG</v>
       </c>
-      <c r="R5" s="4" t="str">
+      <c r="R5" s="36" t="str">
         <f>BD5</f>
         <v>VG</v>
       </c>
-      <c r="S5" s="4" t="str">
+      <c r="S5" s="36" t="str">
         <f>BV5</f>
         <v>VG</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="36">
         <v>0.84899999999999998</v>
       </c>
-      <c r="U5" s="6" t="str">
+      <c r="U5" s="36" t="str">
         <f>IF(T5&gt;0.85,"VG",IF(T5&gt;0.75,"G",IF(T5&gt;0.6,"S","NS")))</f>
         <v>G</v>
       </c>
-      <c r="V5" s="6" t="str">
+      <c r="V5" s="36" t="str">
         <f>AN5</f>
         <v>G</v>
       </c>
-      <c r="W5" s="6" t="str">
+      <c r="W5" s="36" t="str">
         <f>BF5</f>
         <v>VG</v>
       </c>
-      <c r="X5" s="6" t="str">
+      <c r="X5" s="36" t="str">
         <f>BX5</f>
         <v>VG</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="38">
         <v>0.87517406588218205</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="38">
         <v>0.84589496474846504</v>
       </c>
-      <c r="AA5" s="20">
+      <c r="AA5" s="38">
         <v>1.5274014586835201</v>
       </c>
-      <c r="AB5" s="20">
+      <c r="AB5" s="38">
         <v>-0.21721838795452</v>
       </c>
-      <c r="AC5" s="24">
+      <c r="AC5" s="38">
         <v>0.35330713850390599</v>
       </c>
-      <c r="AD5" s="24">
+      <c r="AD5" s="38">
         <v>0.39256214189798699</v>
       </c>
-      <c r="AE5" s="10">
+      <c r="AE5" s="38">
         <v>0.87816760879297495</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AF5" s="38">
         <v>0.84894707604507402</v>
       </c>
-      <c r="AG5" s="11" t="s">
+      <c r="AG5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AH5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN5" s="1" t="s">
+      <c r="AP5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AP5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ5" s="8">
+      <c r="AQ5" s="38">
         <v>0.87789216603635001</v>
       </c>
-      <c r="AR5" s="8">
+      <c r="AR5" s="38">
         <v>0.88716456582591796</v>
       </c>
-      <c r="AS5" s="20">
+      <c r="AS5" s="38">
         <v>-0.79462902030932703</v>
       </c>
-      <c r="AT5" s="20">
+      <c r="AT5" s="38">
         <v>0.66295113525143501</v>
       </c>
-      <c r="AU5" s="9">
+      <c r="AU5" s="38">
         <v>0.34943931370647202</v>
       </c>
-      <c r="AV5" s="9">
+      <c r="AV5" s="38">
         <v>0.33590986019181102</v>
       </c>
-      <c r="AW5" s="10">
+      <c r="AW5" s="38">
         <v>0.88032527802462501</v>
       </c>
-      <c r="AX5" s="10">
+      <c r="AX5" s="38">
         <v>0.89193146586953798</v>
       </c>
-      <c r="AY5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG5">
+      <c r="AY5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG5" s="35">
         <f t="shared" ref="BG5:BG7" si="2">IF(BH5=AP5,1,0)</f>
         <v>1</v>
       </c>
-      <c r="BH5" t="s">
-        <v>11</v>
-      </c>
-      <c r="BI5" s="8">
+      <c r="BH5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI5" s="38">
         <v>0.88024286592676004</v>
       </c>
-      <c r="BJ5" s="8">
+      <c r="BJ5" s="38">
         <v>0.89351946759898604</v>
       </c>
-      <c r="BK5" s="20">
+      <c r="BK5" s="38">
         <v>-1.7899437098911299</v>
       </c>
-      <c r="BL5" s="20">
+      <c r="BL5" s="38">
         <v>-1.04176886231318</v>
       </c>
-      <c r="BM5" s="10">
+      <c r="BM5" s="38">
         <v>0.34605943719719701</v>
       </c>
-      <c r="BN5" s="10">
+      <c r="BN5" s="38">
         <v>0.326313549214576</v>
       </c>
-      <c r="BO5" s="10">
+      <c r="BO5" s="38">
         <v>0.88221098254277297</v>
       </c>
-      <c r="BP5" s="10">
+      <c r="BP5" s="38">
         <v>0.89640123079157796</v>
       </c>
-      <c r="BQ5" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>9</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>9</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>9</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>9</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>9</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>9</v>
+      <c r="BQ5" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR5" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS5" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT5" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="BU5" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV5" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW5" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX5" s="35" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:76" x14ac:dyDescent="0.3">
@@ -1262,240 +1279,240 @@
         <v>23810706</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="3">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2">
         <v>-5.96</v>
       </c>
-      <c r="F6" s="3" t="str">
+      <c r="F6" s="2" t="str">
         <f t="shared" ref="F6:F10" si="3">IF(E6&gt;0.8,"VG",IF(E6&gt;0.7,"G",IF(E6&gt;0.45,"S","NS")))</f>
         <v>NS</v>
       </c>
-      <c r="G6" s="3" t="str">
+      <c r="G6" s="2" t="str">
         <f t="shared" ref="G6:G10" si="4">AH6</f>
         <v>NS</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="H6" s="2" t="str">
         <f t="shared" ref="H6:H10" si="5">AZ6</f>
         <v>NS</v>
       </c>
-      <c r="I6" s="3" t="str">
+      <c r="I6" s="2" t="str">
         <f t="shared" ref="I6:I10" si="6">BR6</f>
         <v>NS</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>8.4209999999999994</v>
       </c>
-      <c r="K6" s="32" t="str">
+      <c r="K6" s="24" t="str">
         <f t="shared" ref="K6:K10" si="7">IF(ABS(J6)&lt;5%,"VG",IF(ABS(J6)&lt;10%,"G",IF(ABS(J6)&lt;15%,"S","NS")))</f>
         <v>NS</v>
       </c>
-      <c r="L6" s="32" t="str">
+      <c r="L6" s="24" t="str">
         <f>AM6</f>
         <v>NS</v>
       </c>
-      <c r="M6" s="32" t="str">
+      <c r="M6" s="24" t="str">
         <f>BB6</f>
         <v>NS</v>
       </c>
-      <c r="N6" s="32" t="str">
+      <c r="N6" s="24" t="str">
         <f>BW6</f>
         <v>NS</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>0.98699999999999999</v>
       </c>
-      <c r="P6" s="4" t="str">
+      <c r="P6" s="3" t="str">
         <f t="shared" ref="P6:P10" si="8">IF(O6&lt;=0.5,"VG",IF(O6&lt;=0.6,"G",IF(O6&lt;=0.7,"S","NS")))</f>
         <v>NS</v>
       </c>
-      <c r="Q6" s="4" t="str">
+      <c r="Q6" s="3" t="str">
         <f t="shared" ref="Q6:Q10" si="9">AL6</f>
         <v>NS</v>
       </c>
-      <c r="R6" s="4" t="str">
+      <c r="R6" s="3" t="str">
         <f t="shared" ref="R6:R10" si="10">BD6</f>
         <v>NS</v>
       </c>
-      <c r="S6" s="4" t="str">
+      <c r="S6" s="3" t="str">
         <f t="shared" ref="S6:S10" si="11">BV6</f>
         <v>NS</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="4">
         <v>0.27400000000000002</v>
       </c>
-      <c r="U6" s="6" t="str">
+      <c r="U6" s="5" t="str">
         <f t="shared" ref="U6:U10" si="12">IF(T6&gt;0.85,"VG",IF(T6&gt;0.75,"G",IF(T6&gt;0.6,"S","NS")))</f>
         <v>NS</v>
       </c>
-      <c r="V6" s="6" t="str">
+      <c r="V6" s="5" t="str">
         <f t="shared" ref="V6:V10" si="13">AN6</f>
         <v>NS</v>
       </c>
-      <c r="W6" s="6" t="str">
+      <c r="W6" s="5" t="str">
         <f t="shared" ref="W6:W10" si="14">BF6</f>
         <v>NS</v>
       </c>
-      <c r="X6" s="6" t="str">
+      <c r="X6" s="5" t="str">
         <f t="shared" ref="X6:X10" si="15">BX6</f>
         <v>NS</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y6" s="7">
         <v>-6.1650493608395598</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="7">
         <v>-6.2054640769481804</v>
       </c>
-      <c r="AA6" s="25">
+      <c r="AA6" s="23">
         <v>90.817287947932698</v>
       </c>
-      <c r="AB6" s="25">
+      <c r="AB6" s="23">
         <v>90.677144158421896</v>
       </c>
-      <c r="AC6" s="9">
+      <c r="AC6" s="8">
         <v>2.6767609831360701</v>
       </c>
-      <c r="AD6" s="9">
+      <c r="AD6" s="8">
         <v>2.6842995505249001</v>
       </c>
-      <c r="AE6" s="10">
+      <c r="AE6" s="9">
         <v>0.21956606183347899</v>
       </c>
-      <c r="AF6" s="10">
+      <c r="AF6" s="9">
         <v>0.26035970371142803</v>
       </c>
-      <c r="AG6" s="11" t="s">
+      <c r="AG6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AH6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ6" s="8">
+      <c r="AQ6" s="7">
         <v>-6.1941660924808204</v>
       </c>
-      <c r="AR6" s="8">
+      <c r="AR6" s="7">
         <v>-6.0444303011356197</v>
       </c>
-      <c r="AS6" s="25">
+      <c r="AS6" s="23">
         <v>90.992890159462206</v>
       </c>
-      <c r="AT6" s="25">
+      <c r="AT6" s="23">
         <v>90.807583521074704</v>
       </c>
-      <c r="AU6" s="9">
+      <c r="AU6" s="8">
         <v>2.6821942682216</v>
       </c>
-      <c r="AV6" s="9">
+      <c r="AV6" s="8">
         <v>2.6541345672621102</v>
       </c>
-      <c r="AW6" s="10">
+      <c r="AW6" s="9">
         <v>0.22712317784789501</v>
       </c>
-      <c r="AX6" s="10">
+      <c r="AX6" s="9">
         <v>0.26386691378730598</v>
       </c>
-      <c r="AY6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AZ6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="BB6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="BC6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="BD6" s="13" t="s">
-        <v>21</v>
+      <c r="AY6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD6" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="BE6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BG6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BH6" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI6" s="10">
+        <v>21</v>
+      </c>
+      <c r="BI6" s="9">
         <v>-6.1580369780810598</v>
       </c>
-      <c r="BJ6" s="10">
+      <c r="BJ6" s="9">
         <v>-6.0047999054110699</v>
       </c>
-      <c r="BK6" s="10">
+      <c r="BK6" s="9">
         <v>90.722443518098501</v>
       </c>
-      <c r="BL6" s="10">
+      <c r="BL6" s="9">
         <v>90.516604752538797</v>
       </c>
-      <c r="BM6" s="10">
+      <c r="BM6" s="9">
         <v>2.6754507990394898</v>
       </c>
-      <c r="BN6" s="10">
+      <c r="BN6" s="9">
         <v>2.6466582524782201</v>
       </c>
-      <c r="BO6" s="10">
+      <c r="BO6" s="9">
         <v>0.21752089982755099</v>
       </c>
-      <c r="BP6" s="10">
+      <c r="BP6" s="9">
         <v>0.25348842989813802</v>
       </c>
       <c r="BQ6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BR6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BS6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BT6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BU6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BV6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BW6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BX6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:76" x14ac:dyDescent="0.3">
@@ -1506,240 +1523,240 @@
         <v>23809432</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="3">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2">
         <v>-0.33</v>
       </c>
-      <c r="F7" s="3" t="str">
+      <c r="F7" s="2" t="str">
         <f t="shared" si="3"/>
         <v>NS</v>
       </c>
-      <c r="G7" s="3" t="str">
+      <c r="G7" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NS</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="2" t="str">
         <f t="shared" si="5"/>
         <v>NS</v>
       </c>
-      <c r="I7" s="3" t="str">
+      <c r="I7" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NS</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>-0.10299999999999999</v>
       </c>
-      <c r="K7" s="32" t="str">
+      <c r="K7" s="24" t="str">
         <f t="shared" si="7"/>
         <v>S</v>
       </c>
-      <c r="L7" s="32" t="str">
+      <c r="L7" s="24" t="str">
         <f t="shared" ref="L7:L10" si="16">AM7</f>
         <v>S</v>
       </c>
-      <c r="M7" s="32" t="str">
+      <c r="M7" s="24" t="str">
         <f t="shared" ref="M7:M10" si="17">BB7</f>
         <v>S</v>
       </c>
-      <c r="N7" s="32" t="str">
+      <c r="N7" s="24" t="str">
         <f t="shared" ref="N7:N10" si="18">BW7</f>
         <v>S</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>1.0920000000000001</v>
       </c>
-      <c r="P7" s="4" t="str">
+      <c r="P7" s="3" t="str">
         <f t="shared" si="8"/>
         <v>NS</v>
       </c>
-      <c r="Q7" s="4" t="str">
+      <c r="Q7" s="3" t="str">
         <f t="shared" si="9"/>
         <v>NS</v>
       </c>
-      <c r="R7" s="4" t="str">
+      <c r="R7" s="3" t="str">
         <f t="shared" si="10"/>
         <v>NS</v>
       </c>
-      <c r="S7" s="4" t="str">
+      <c r="S7" s="3" t="str">
         <f t="shared" si="11"/>
         <v>NS</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="4">
         <v>0.59</v>
       </c>
-      <c r="U7" s="6" t="str">
+      <c r="U7" s="5" t="str">
         <f t="shared" si="12"/>
         <v>NS</v>
       </c>
-      <c r="V7" s="6" t="str">
+      <c r="V7" s="5" t="str">
         <f t="shared" si="13"/>
         <v>S</v>
       </c>
-      <c r="W7" s="6" t="str">
+      <c r="W7" s="5" t="str">
         <f t="shared" si="14"/>
         <v>S</v>
       </c>
-      <c r="X7" s="6" t="str">
+      <c r="X7" s="5" t="str">
         <f t="shared" si="15"/>
         <v>S</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y7" s="7">
         <v>-0.12579102405015699</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="Z7" s="7">
         <v>-0.15731268790108199</v>
       </c>
-      <c r="AA7" s="25">
+      <c r="AA7" s="23">
         <v>-12.016822324999</v>
       </c>
-      <c r="AB7" s="25">
+      <c r="AB7" s="23">
         <v>-12.967679592282</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AC7" s="8">
         <v>1.0610329985679801</v>
       </c>
-      <c r="AD7" s="9">
+      <c r="AD7" s="8">
         <v>1.07578468473068</v>
       </c>
-      <c r="AE7" s="10">
+      <c r="AE7" s="9">
         <v>0.644855223399601</v>
       </c>
-      <c r="AF7" s="10">
+      <c r="AF7" s="9">
         <v>0.63468173686646001</v>
       </c>
-      <c r="AG7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI7" s="12" t="s">
+      <c r="AG7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AJ7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ7" s="8">
+      <c r="AQ7" s="7">
         <v>-0.14968272982594799</v>
       </c>
-      <c r="AR7" s="8">
+      <c r="AR7" s="7">
         <v>-0.112730353061711</v>
       </c>
-      <c r="AS7" s="25">
+      <c r="AS7" s="23">
         <v>-14.713896120325201</v>
       </c>
-      <c r="AT7" s="25">
+      <c r="AT7" s="23">
         <v>-14.186631350404101</v>
       </c>
-      <c r="AU7" s="9">
+      <c r="AU7" s="8">
         <v>1.07223259129069</v>
       </c>
-      <c r="AV7" s="9">
+      <c r="AV7" s="8">
         <v>1.0548603476582601</v>
       </c>
-      <c r="AW7" s="10">
+      <c r="AW7" s="9">
         <v>0.66064478508299795</v>
       </c>
-      <c r="AX7" s="10">
+      <c r="AX7" s="9">
         <v>0.66789227756178704</v>
       </c>
-      <c r="AY7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AZ7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="BC7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="BD7" s="13" t="s">
-        <v>21</v>
+      <c r="AY7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD7" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="BE7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BG7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BH7" t="s">
-        <v>25</v>
-      </c>
-      <c r="BI7" s="10">
+        <v>24</v>
+      </c>
+      <c r="BI7" s="9">
         <v>-0.103948377971453</v>
       </c>
-      <c r="BJ7" s="10">
+      <c r="BJ7" s="9">
         <v>-8.0764684555042002E-2</v>
       </c>
-      <c r="BK7" s="10">
+      <c r="BK7" s="9">
         <v>-11.186358706316801</v>
       </c>
-      <c r="BL7" s="10">
+      <c r="BL7" s="9">
         <v>-11.2239295581257</v>
       </c>
-      <c r="BM7" s="10">
+      <c r="BM7" s="9">
         <v>1.05068947742492</v>
       </c>
-      <c r="BN7" s="10">
+      <c r="BN7" s="9">
         <v>1.03959832846876</v>
       </c>
-      <c r="BO7" s="10">
+      <c r="BO7" s="9">
         <v>0.64590936786643305</v>
       </c>
-      <c r="BP7" s="10">
+      <c r="BP7" s="9">
         <v>0.65694807829837698</v>
       </c>
       <c r="BQ7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BR7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BS7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BT7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BU7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BV7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BW7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BX7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:76" x14ac:dyDescent="0.3">
@@ -1750,723 +1767,835 @@
         <v>23809416</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="3">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2">
         <v>-54.96</v>
       </c>
-      <c r="F8" s="3" t="str">
+      <c r="F8" s="2" t="str">
         <f t="shared" si="3"/>
         <v>NS</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>-0.81799999999999995</v>
       </c>
-      <c r="K8" s="32" t="str">
+      <c r="K8" s="24" t="str">
         <f t="shared" si="7"/>
         <v>NS</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="24">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="24">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="24">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>0.41899999999999998</v>
       </c>
-      <c r="P8" s="4" t="str">
+      <c r="P8" s="3" t="str">
         <f t="shared" si="8"/>
         <v>VG</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="4">
         <v>0.41899999999999998</v>
       </c>
-      <c r="U8" s="6" t="str">
+      <c r="U8" s="5" t="str">
         <f t="shared" si="12"/>
         <v>NS</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:76" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41">
         <v>14209500</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="41">
         <v>23809158</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="C9" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="42">
         <v>0.75</v>
       </c>
-      <c r="F9" s="3" t="str">
+      <c r="F9" s="42" t="str">
         <f t="shared" si="3"/>
         <v>G</v>
       </c>
-      <c r="G9" s="3" t="str">
+      <c r="G9" s="42" t="str">
         <f t="shared" si="4"/>
         <v>G</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" s="42" t="str">
         <f t="shared" si="5"/>
         <v>VG</v>
       </c>
-      <c r="I9" s="3" t="str">
+      <c r="I9" s="42" t="str">
         <f t="shared" si="6"/>
         <v>VG</v>
       </c>
-      <c r="J9" s="7">
-        <v>-4.9000000000000002E-2</v>
-      </c>
-      <c r="K9" s="32" t="str">
+      <c r="J9" s="43">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="K9" s="42" t="str">
         <f t="shared" si="7"/>
         <v>VG</v>
       </c>
-      <c r="L9" s="32" t="str">
+      <c r="L9" s="42" t="str">
         <f t="shared" si="16"/>
         <v>G</v>
       </c>
-      <c r="M9" s="32" t="str">
+      <c r="M9" s="42" t="str">
         <f t="shared" si="17"/>
         <v>G</v>
       </c>
-      <c r="N9" s="32" t="str">
+      <c r="N9" s="42" t="str">
         <f t="shared" si="18"/>
         <v>G</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="42">
         <v>0.497</v>
       </c>
-      <c r="P9" s="4" t="str">
+      <c r="P9" s="42" t="str">
         <f t="shared" si="8"/>
         <v>VG</v>
       </c>
-      <c r="Q9" s="4" t="str">
+      <c r="Q9" s="42" t="str">
         <f t="shared" si="9"/>
         <v>VG</v>
       </c>
-      <c r="R9" s="4" t="str">
+      <c r="R9" s="42" t="str">
         <f t="shared" si="10"/>
         <v>VG</v>
       </c>
-      <c r="S9" s="4" t="str">
+      <c r="S9" s="42" t="str">
         <f t="shared" si="11"/>
         <v>VG</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="42">
         <v>0.78800000000000003</v>
       </c>
-      <c r="U9" s="6" t="str">
+      <c r="U9" s="42" t="str">
         <f t="shared" si="12"/>
         <v>G</v>
       </c>
-      <c r="V9" s="6" t="str">
+      <c r="V9" s="42" t="str">
         <f t="shared" si="13"/>
         <v>G</v>
       </c>
-      <c r="W9" s="6" t="str">
+      <c r="W9" s="42" t="str">
         <f t="shared" si="14"/>
         <v>G</v>
       </c>
-      <c r="X9" s="6" t="str">
+      <c r="X9" s="42" t="str">
         <f t="shared" si="15"/>
         <v>VG</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Y9" s="44">
         <v>0.80940687816865498</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="Z9" s="44">
         <v>0.769334859050122</v>
       </c>
-      <c r="AA9" s="25">
+      <c r="AA9" s="44">
         <v>-4.3526231551944896</v>
       </c>
-      <c r="AB9" s="25">
+      <c r="AB9" s="44">
         <v>-6.5097568990758301</v>
       </c>
-      <c r="AC9" s="9">
+      <c r="AC9" s="44">
         <v>0.43656972161539598</v>
       </c>
-      <c r="AD9" s="9">
+      <c r="AD9" s="44">
         <v>0.48027610907672402</v>
       </c>
-      <c r="AE9" s="10">
+      <c r="AE9" s="44">
         <v>0.83145489859022303</v>
       </c>
-      <c r="AF9" s="10">
+      <c r="AF9" s="44">
         <v>0.79814604973609105</v>
       </c>
-      <c r="AG9" s="11" t="s">
+      <c r="AG9" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AH9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI9" s="12" t="s">
+      <c r="AI9" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AJ9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK9" s="13" t="s">
+      <c r="AK9" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL9" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AL9" s="13" t="s">
+      <c r="AN9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AM9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ9" s="8">
+      <c r="AP9" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ9" s="44">
         <v>0.78705294296718697</v>
       </c>
-      <c r="AR9" s="8">
+      <c r="AR9" s="44">
         <v>0.81487431108080899</v>
       </c>
-      <c r="AS9" s="25">
+      <c r="AS9" s="44">
         <v>-8.70200089752535</v>
       </c>
-      <c r="AT9" s="25">
+      <c r="AT9" s="44">
         <v>-7.4905471371135004</v>
       </c>
-      <c r="AU9" s="9">
+      <c r="AU9" s="44">
         <v>0.46146186953291501</v>
       </c>
-      <c r="AV9" s="9">
+      <c r="AV9" s="44">
         <v>0.43026234894444498</v>
       </c>
-      <c r="AW9" s="10">
+      <c r="AW9" s="44">
         <v>0.82823635392241002</v>
       </c>
-      <c r="AX9" s="10">
+      <c r="AX9" s="44">
         <v>0.84493418252930597</v>
       </c>
-      <c r="AY9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AZ9" s="11" t="s">
+      <c r="AY9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="BA9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="BB9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="BC9" s="13" t="s">
+      <c r="AZ9" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="BD9" s="13" t="s">
+      <c r="BB9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="BE9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="BF9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="BG9">
+      <c r="BC9" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD9" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE9" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF9" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG9" s="41">
         <f t="shared" ref="BG9:BG10" si="19">IF(BH9=AP9,1,0)</f>
         <v>1</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BH9" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI9" s="44">
+        <v>0.80192741104821896</v>
+      </c>
+      <c r="BJ9" s="44">
+        <v>0.82203120458059797</v>
+      </c>
+      <c r="BK9" s="44">
+        <v>-7.8534506751173998</v>
+      </c>
+      <c r="BL9" s="44">
+        <v>-7.6238913136922299</v>
+      </c>
+      <c r="BM9" s="44">
+        <v>0.44505346752023101</v>
+      </c>
+      <c r="BN9" s="44">
+        <v>0.42186347959902998</v>
+      </c>
+      <c r="BO9" s="44">
+        <v>0.84081536856149897</v>
+      </c>
+      <c r="BP9" s="44">
+        <v>0.85652719222509899</v>
+      </c>
+      <c r="BQ9" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR9" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS9" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT9" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU9" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV9" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW9" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX9" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:76" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41">
+        <v>14210000</v>
+      </c>
+      <c r="B10" s="41">
+        <v>23809080</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="BI9" s="10">
-        <v>0.80192741104821896</v>
-      </c>
-      <c r="BJ9" s="10">
-        <v>0.82203120458059797</v>
-      </c>
-      <c r="BK9" s="10">
-        <v>-7.8534506751173998</v>
-      </c>
-      <c r="BL9" s="10">
-        <v>-7.6238913136922299</v>
-      </c>
-      <c r="BM9" s="10">
-        <v>0.44505346752023101</v>
-      </c>
-      <c r="BN9" s="10">
-        <v>0.42186347959902998</v>
-      </c>
-      <c r="BO9" s="10">
-        <v>0.84081536856149897</v>
-      </c>
-      <c r="BP9" s="10">
-        <v>0.85652719222509899</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>9</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>10</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>10</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>9</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>10</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>14210000</v>
-      </c>
-      <c r="B10">
-        <v>23809080</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="42">
         <v>0.78400000000000003</v>
       </c>
-      <c r="F10" s="3" t="str">
+      <c r="F10" s="42" t="str">
         <f t="shared" si="3"/>
         <v>G</v>
       </c>
-      <c r="G10" s="3" t="str">
+      <c r="G10" s="42" t="str">
         <f t="shared" si="4"/>
         <v>G</v>
       </c>
-      <c r="H10" s="3" t="str">
+      <c r="H10" s="42" t="str">
         <f t="shared" si="5"/>
         <v>VG</v>
       </c>
-      <c r="I10" s="3" t="str">
+      <c r="I10" s="42" t="str">
         <f t="shared" si="6"/>
         <v>VG</v>
       </c>
-      <c r="J10" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K10" s="32" t="str">
+      <c r="J10" s="43">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K10" s="42" t="str">
         <f t="shared" si="7"/>
         <v>VG</v>
       </c>
-      <c r="L10" s="32" t="str">
+      <c r="L10" s="42" t="str">
         <f t="shared" si="16"/>
         <v>G</v>
       </c>
-      <c r="M10" s="32" t="str">
+      <c r="M10" s="42" t="str">
         <f t="shared" si="17"/>
         <v>VG</v>
       </c>
-      <c r="N10" s="32" t="str">
+      <c r="N10" s="42" t="str">
         <f t="shared" si="18"/>
         <v>G</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="42">
         <v>0.46400000000000002</v>
       </c>
-      <c r="P10" s="4" t="str">
+      <c r="P10" s="42" t="str">
         <f t="shared" si="8"/>
         <v>VG</v>
       </c>
-      <c r="Q10" s="4" t="str">
+      <c r="Q10" s="42" t="str">
         <f t="shared" si="9"/>
         <v>VG</v>
       </c>
-      <c r="R10" s="4" t="str">
+      <c r="R10" s="42" t="str">
         <f t="shared" si="10"/>
         <v>VG</v>
       </c>
-      <c r="S10" s="4" t="str">
+      <c r="S10" s="42" t="str">
         <f t="shared" si="11"/>
         <v>VG</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="42">
         <v>0.79700000000000004</v>
       </c>
-      <c r="U10" s="6" t="str">
+      <c r="U10" s="42" t="str">
         <f t="shared" si="12"/>
         <v>G</v>
       </c>
-      <c r="V10" s="6" t="str">
+      <c r="V10" s="42" t="str">
         <f t="shared" si="13"/>
         <v>G</v>
       </c>
-      <c r="W10" s="6" t="str">
+      <c r="W10" s="42" t="str">
         <f t="shared" si="14"/>
         <v>VG</v>
       </c>
-      <c r="X10" s="6" t="str">
+      <c r="X10" s="42" t="str">
         <f t="shared" si="15"/>
         <v>VG</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y10" s="44">
         <v>0.83191942685365805</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="Z10" s="44">
         <v>0.79591027856556695</v>
       </c>
-      <c r="AA10" s="25">
+      <c r="AA10" s="44">
         <v>0.38831179398619903</v>
       </c>
-      <c r="AB10" s="25">
+      <c r="AB10" s="44">
         <v>-1.3185495812788199</v>
       </c>
-      <c r="AC10" s="9">
+      <c r="AC10" s="44">
         <v>0.40997630803052798</v>
       </c>
-      <c r="AD10" s="9">
+      <c r="AD10" s="44">
         <v>0.451762904004338</v>
       </c>
-      <c r="AE10" s="10">
+      <c r="AE10" s="44">
         <v>0.83979916682674505</v>
       </c>
-      <c r="AF10" s="10">
+      <c r="AF10" s="44">
         <v>0.80197537262607599</v>
       </c>
-      <c r="AG10" s="11" t="s">
+      <c r="AG10" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AH10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI10" s="12" t="s">
+      <c r="AI10" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ10" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK10" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL10" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AJ10" s="12" t="s">
+      <c r="AN10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AK10" s="13" t="s">
+      <c r="AP10" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ10" s="44">
+        <v>0.83673620100847201</v>
+      </c>
+      <c r="AR10" s="44">
+        <v>0.85464863387376999</v>
+      </c>
+      <c r="AS10" s="44">
+        <v>-3.7988371745056999</v>
+      </c>
+      <c r="AT10" s="44">
+        <v>-2.1712428863506799</v>
+      </c>
+      <c r="AU10" s="44">
+        <v>0.404059152837216</v>
+      </c>
+      <c r="AV10" s="44">
+        <v>0.381249742460543</v>
+      </c>
+      <c r="AW10" s="44">
+        <v>0.84890382562058198</v>
+      </c>
+      <c r="AX10" s="44">
+        <v>0.85908054690985503</v>
+      </c>
+      <c r="AY10" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ10" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA10" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB10" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC10" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD10" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AL10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ10" s="8">
-        <v>0.83673620100847201</v>
-      </c>
-      <c r="AR10" s="8">
-        <v>0.85464863387376999</v>
-      </c>
-      <c r="AS10" s="25">
-        <v>-3.7988371745056999</v>
-      </c>
-      <c r="AT10" s="25">
-        <v>-2.1712428863506799</v>
-      </c>
-      <c r="AU10" s="9">
-        <v>0.404059152837216</v>
-      </c>
-      <c r="AV10" s="9">
-        <v>0.381249742460543</v>
-      </c>
-      <c r="AW10" s="10">
-        <v>0.84890382562058198</v>
-      </c>
-      <c r="AX10" s="10">
-        <v>0.85908054690985503</v>
-      </c>
-      <c r="AY10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="BF10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG10">
+      <c r="BF10" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG10" s="41">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="BH10" t="s">
-        <v>30</v>
-      </c>
-      <c r="BI10" s="10">
+      <c r="BH10" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI10" s="44">
         <v>0.83083065200611605</v>
       </c>
-      <c r="BJ10" s="10">
+      <c r="BJ10" s="44">
         <v>0.85113740686850603</v>
       </c>
-      <c r="BK10" s="10">
+      <c r="BK10" s="44">
         <v>-2.37508540421749</v>
       </c>
-      <c r="BL10" s="10">
+      <c r="BL10" s="44">
         <v>-1.76519867271802</v>
       </c>
-      <c r="BM10" s="10">
+      <c r="BM10" s="44">
         <v>0.41130201554804502</v>
       </c>
-      <c r="BN10" s="10">
+      <c r="BN10" s="44">
         <v>0.38582715447658</v>
       </c>
-      <c r="BO10" s="10">
+      <c r="BO10" s="44">
         <v>0.84311445948591601</v>
       </c>
-      <c r="BP10" s="10">
+      <c r="BP10" s="44">
         <v>0.85760398008863803</v>
       </c>
-      <c r="BQ10" t="s">
+      <c r="BQ10" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR10" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS10" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT10" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="BU10" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV10" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW10" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="BR10" t="s">
-        <v>9</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>9</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>9</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>9</v>
-      </c>
-      <c r="BW10" t="s">
-        <v>10</v>
-      </c>
-      <c r="BX10" t="s">
-        <v>9</v>
+      <c r="BX10" s="41" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:76" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="41">
+        <v>14211010</v>
+      </c>
+      <c r="B13" s="41">
+        <v>23809000</v>
+      </c>
+      <c r="C13" s="41" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>14211010</v>
-      </c>
-      <c r="B13">
-        <v>23809000</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="F13" s="3" t="str">
+      <c r="D13" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="42">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="F13" s="42" t="str">
         <f>IF(E13&gt;0.8,"VG",IF(E13&gt;0.7,"G",IF(E13&gt;0.45,"S","NS")))</f>
         <v>G</v>
       </c>
-      <c r="J13" s="7">
-        <v>-0.11600000000000001</v>
-      </c>
-      <c r="K13" s="32" t="str">
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43">
+        <v>-0.11899999999999999</v>
+      </c>
+      <c r="K13" s="42" t="str">
         <f>IF(ABS(J13)&lt;5%,"VG",IF(ABS(J13)&lt;10%,"G",IF(ABS(J13)&lt;15%,"S","NS")))</f>
         <v>S</v>
       </c>
-      <c r="O13" s="4">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="P13" s="4" t="str">
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="P13" s="42" t="str">
         <f>IF(O13&lt;=0.5,"VG",IF(O13&lt;=0.6,"G",IF(O13&lt;=0.7,"S","NS")))</f>
         <v>G</v>
       </c>
-      <c r="T13" s="5">
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42">
         <v>0.89100000000000001</v>
       </c>
-      <c r="U13" s="6" t="str">
+      <c r="U13" s="42" t="str">
         <f>IF(T13&gt;0.85,"VG",IF(T13&gt;0.75,"G",IF(T13&gt;0.6,"S","NS")))</f>
         <v>VG</v>
       </c>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="42"/>
+      <c r="AJ13" s="42"/>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>14209500</v>
-      </c>
-      <c r="B14">
-        <v>23809158</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>36</v>
-      </c>
+    <row r="14" spans="1:76" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
     </row>
     <row r="15" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>14209500</v>
+      </c>
+      <c r="B15">
+        <v>23809158</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:76" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="41">
         <v>14209710</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="41">
         <v>23809112</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="42">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="F16" s="42" t="str">
+        <f t="shared" ref="F16:F17" si="20">IF(E16&gt;0.8,"VG",IF(E16&gt;0.7,"G",IF(E16&gt;0.45,"S","NS")))</f>
+        <v>G</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43">
+        <v>-0.114</v>
+      </c>
+      <c r="K16" s="42" t="str">
+        <f t="shared" ref="K16:K17" si="21">IF(ABS(J16)&lt;5%,"VG",IF(ABS(J16)&lt;10%,"G",IF(ABS(J16)&lt;15%,"S","NS")))</f>
+        <v>S</v>
+      </c>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="P16" s="42" t="str">
+        <f t="shared" ref="P16:P17" si="22">IF(O16&lt;=0.5,"VG",IF(O16&lt;=0.6,"G",IF(O16&lt;=0.7,"S","NS")))</f>
+        <v>G</v>
+      </c>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="U16" s="42" t="str">
+        <f t="shared" ref="U16:U17" si="23">IF(T16&gt;0.85,"VG",IF(T16&gt;0.75,"G",IF(T16&gt;0.6,"S","NS")))</f>
+        <v>VG</v>
+      </c>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="43"/>
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="42"/>
+    </row>
+    <row r="17" spans="1:36" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="41">
+        <v>14210000</v>
+      </c>
+      <c r="B17" s="41">
+        <v>23809080</v>
+      </c>
+      <c r="C17" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="F15" s="3" t="str">
-        <f t="shared" ref="F15:F16" si="20">IF(E15&gt;0.8,"VG",IF(E15&gt;0.7,"G",IF(E15&gt;0.45,"S","NS")))</f>
+      <c r="D17" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="42" t="str">
+        <f t="shared" si="20"/>
         <v>G</v>
       </c>
-      <c r="J15" s="7">
-        <v>-0.111</v>
-      </c>
-      <c r="K15" s="32" t="str">
-        <f t="shared" ref="K15:K16" si="21">IF(ABS(J15)&lt;5%,"VG",IF(ABS(J15)&lt;10%,"G",IF(ABS(J15)&lt;15%,"S","NS")))</f>
-        <v>S</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="P15" s="4" t="str">
-        <f t="shared" ref="P15:P16" si="22">IF(O15&lt;=0.5,"VG",IF(O15&lt;=0.6,"G",IF(O15&lt;=0.7,"S","NS")))</f>
-        <v>G</v>
-      </c>
-      <c r="T15" s="5">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="U15" s="6" t="str">
-        <f t="shared" ref="U15:U16" si="23">IF(T15&gt;0.85,"VG",IF(T15&gt;0.75,"G",IF(T15&gt;0.6,"S","NS")))</f>
-        <v>VG</v>
-      </c>
-    </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14210000</v>
-      </c>
-      <c r="B16">
-        <v>23809080</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="F16" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>VG</v>
-      </c>
-      <c r="J16" s="7">
-        <v>-6.7000000000000004E-2</v>
-      </c>
-      <c r="K16" s="32" t="str">
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="K17" s="42" t="str">
         <f t="shared" si="21"/>
         <v>G</v>
       </c>
-      <c r="O16" s="4">
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42">
         <v>0.435</v>
       </c>
-      <c r="P16" s="4" t="str">
+      <c r="P17" s="42" t="str">
         <f t="shared" si="22"/>
         <v>VG</v>
       </c>
-      <c r="T16" s="5">
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42">
         <v>0.88100000000000001</v>
       </c>
-      <c r="U16" s="6" t="str">
+      <c r="U17" s="42" t="str">
         <f t="shared" si="23"/>
         <v>VG</v>
       </c>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="43"/>
+      <c r="AI17" s="42"/>
+      <c r="AJ17" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AY3:AZ3"/>
     <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="BC3:BD3"/>
@@ -2477,12 +2606,6 @@
     <mergeCell ref="AS3:AT3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
